--- a/data/trans_orig/Q23-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.37584306461856</v>
+        <v>16.37711533809985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.87450421535344</v>
+        <v>16.82639146444963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.65812862259323</v>
+        <v>16.66108135343289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.29599078170172</v>
+        <v>17.3335724579359</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.33599623244641</v>
+        <v>17.32176103424995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.75114730241509</v>
+        <v>16.71476106741995</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.81714542067129</v>
+        <v>16.7993871180832</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.1971284198421</v>
+        <v>17.14802384349343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.82679455072081</v>
+        <v>16.84333040144866</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.98093624266397</v>
+        <v>17.00698034348041</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.76088088365553</v>
+        <v>17.7788224916362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.71767619351809</v>
+        <v>17.62275186013897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.98029191677485</v>
+        <v>19.18758686697139</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.09749826965492</v>
+        <v>19.22447763949337</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.70936235156876</v>
+        <v>17.72933314882901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.56341470010004</v>
+        <v>17.47828811873644</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.01690752070528</v>
+        <v>17.98071014900825</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.53592739255548</v>
+        <v>17.53708397112942</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.32330336852057</v>
+        <v>16.34357409555545</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.45404833055113</v>
+        <v>16.46213468259035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.15967941840352</v>
+        <v>16.13865274275284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.62489934219248</v>
+        <v>16.6616307151642</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.78977890441977</v>
+        <v>16.787565811826</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.92724352916784</v>
+        <v>16.97105088387693</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.57007479748209</v>
+        <v>16.58401486316433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.71894959626056</v>
+        <v>16.71795148258701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.62233269790094</v>
+        <v>16.65978212343472</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.23756990812004</v>
+        <v>17.2602640595426</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.21393748372324</v>
+        <v>17.23692217264479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.38654169513208</v>
+        <v>17.41392556093252</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.44110979055955</v>
+        <v>17.45059943039065</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.77304908326279</v>
+        <v>17.71689881851861</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.16185295709636</v>
+        <v>18.23029064921505</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.18542338832872</v>
+        <v>17.19404156051784</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.33841655868445</v>
+        <v>17.31125335814821</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.51822057504976</v>
+        <v>17.49275170376016</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.17355456117401</v>
+        <v>16.17918020018755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.16657077024234</v>
+        <v>16.13023180332178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.02530230422509</v>
+        <v>16.0497741942529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.17183675547797</v>
+        <v>17.19091484741366</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.41292828185025</v>
+        <v>17.41321532555516</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.98436748477175</v>
+        <v>17.9655089608632</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.48668430176266</v>
+        <v>16.49685694923009</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.53392022240998</v>
+        <v>16.52572383216088</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.50879468802126</v>
+        <v>16.46279796502359</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.16675118050966</v>
+        <v>17.08282948371794</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.89631806431516</v>
+        <v>16.83580070983771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.99213166307899</v>
+        <v>16.92704955248524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.96844315001889</v>
+        <v>20.00333619147749</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.27268900434459</v>
+        <v>19.2421917033557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.73754125022429</v>
+        <v>22.13728024435095</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.36578953068906</v>
+        <v>17.40709072085313</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.20191424336147</v>
+        <v>17.2043682106273</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.50859374281713</v>
+        <v>17.42990857141643</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.04735299204571</v>
+        <v>16.02476826752327</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.94046621836631</v>
+        <v>15.96012344488471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.17197244705772</v>
+        <v>16.17101355170505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.77783647645636</v>
+        <v>16.74495637430308</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.01145973424327</v>
+        <v>16.98571643445736</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.17919351057389</v>
+        <v>17.22588197478639</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.28903922806289</v>
+        <v>16.29432323640864</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.38293979397825</v>
+        <v>16.35562149384658</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.64406387998251</v>
+        <v>16.63775190926001</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.48502778482943</v>
+        <v>16.4611788530998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.40424962105211</v>
+        <v>16.42783614402695</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.72887463774213</v>
+        <v>16.73576773363978</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.57871065366521</v>
+        <v>17.55281843033958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.10455235514452</v>
+        <v>18.14127490980652</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.9897314833117</v>
+        <v>18.04677468301752</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.68252211767432</v>
+        <v>16.68817653795223</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>16.85623753086368</v>
+        <v>16.83106181911497</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.10868388627944</v>
+        <v>17.11408015454701</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.60691085363527</v>
+        <v>15.58197101145051</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.93825880996706</v>
+        <v>15.97393860763035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15.92917100220825</v>
+        <v>15.90808801930346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.00801214646389</v>
+        <v>17.00719937147497</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.94224393567401</v>
+        <v>16.95789854497859</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.82470685599711</v>
+        <v>16.83841353554684</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.41047742488358</v>
+        <v>16.38758569226747</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.54210407722818</v>
+        <v>16.54507118513234</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.45582878118148</v>
+        <v>16.43316582781302</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.44130138953079</v>
+        <v>16.35411344486356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.81704778408793</v>
+        <v>16.82110079934881</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.84302807719095</v>
+        <v>16.79365322244034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.81316449678808</v>
+        <v>18.72222447462471</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.08840065692448</v>
+        <v>18.12961853951001</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.03939989554039</v>
+        <v>18.07393586020688</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.39095675161001</v>
+        <v>17.30375378323403</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.25803788150296</v>
+        <v>17.22845290899571</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.19502128239159</v>
+        <v>17.17029775739688</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.21579549926679</v>
+        <v>15.15260667634244</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.39343226895659</v>
+        <v>15.40213692006983</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15.33038213488564</v>
+        <v>15.35746898520324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17.0782392180289</v>
+        <v>17.10771585427398</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.43018135551719</v>
+        <v>17.39872672102121</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.4728696922561</v>
+        <v>17.46685523952523</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.65161851172946</v>
+        <v>16.65084855064202</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>17.00545828588064</v>
+        <v>16.98205493485088</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.04984605431611</v>
+        <v>16.97315925578922</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.57494774469271</v>
+        <v>16.62812579770729</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.55757071023708</v>
+        <v>16.51879162551323</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.26504922123973</v>
+        <v>16.30121698789166</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.40057689951146</v>
+        <v>18.44748499029681</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>19.28310541454814</v>
+        <v>19.20380876131822</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.09508432821791</v>
+        <v>19.05404753978656</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>17.68548978872749</v>
+        <v>17.62117591100503</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>18.42683695115269</v>
+        <v>18.41880932853033</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.23268376777925</v>
+        <v>18.1965979504465</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.19960600529804</v>
+        <v>16.20353444724944</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.30914386018825</v>
+        <v>16.31445593304359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.31804955986792</v>
+        <v>16.31013250584019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.22450556350933</v>
+        <v>17.21829728381616</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.40283560758329</v>
+        <v>17.40679747801493</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.40354023175523</v>
+        <v>17.43021841509157</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.61815006172029</v>
+        <v>16.63016091393837</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.77438582804083</v>
+        <v>16.78226258182556</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.82741216712541</v>
+        <v>16.82390750209339</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.49979371451523</v>
+        <v>16.49372696239341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.60383641917685</v>
+        <v>16.60793568389844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.65528362833842</v>
+        <v>16.65694475612514</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.78684674722748</v>
+        <v>17.77500630223768</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.96760883348983</v>
+        <v>17.95349043471004</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.9421221069952</v>
+        <v>17.91115089699974</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.90151768523155</v>
+        <v>16.91346031482743</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.06577740633704</v>
+        <v>17.05219473370065</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.13377271308734</v>
+        <v>17.12894337011379</v>
       </c>
     </row>
     <row r="25">
